--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H2">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I2">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J2">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -567,22 +567,22 @@
         <v>1.035609</v>
       </c>
       <c r="O2">
-        <v>0.3499363557939206</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="P2">
-        <v>0.3499363557939205</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="Q2">
-        <v>2.148509642106</v>
+        <v>2.0114324650315</v>
       </c>
       <c r="R2">
-        <v>12.891057852636</v>
+        <v>12.068594790189</v>
       </c>
       <c r="S2">
-        <v>0.05506598577078495</v>
+        <v>0.1013449546407089</v>
       </c>
       <c r="T2">
-        <v>0.03896460797198912</v>
+        <v>0.07086995039727367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H3">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I3">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J3">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03179233333333333</v>
+        <v>0.04115566666666667</v>
       </c>
       <c r="N3">
-        <v>0.095377</v>
+        <v>0.123467</v>
       </c>
       <c r="O3">
-        <v>0.03222826356912383</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="P3">
-        <v>0.03222826356912382</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="Q3">
-        <v>0.197872367018</v>
+        <v>0.2398062706678334</v>
       </c>
       <c r="R3">
-        <v>1.187234202108</v>
+        <v>1.438837624007</v>
       </c>
       <c r="S3">
-        <v>0.005071439631038507</v>
+        <v>0.01208251136734463</v>
       </c>
       <c r="T3">
-        <v>0.003588542987309309</v>
+        <v>0.008449231481862544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.223902</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H4">
-        <v>12.447804</v>
+        <v>2.484879</v>
       </c>
       <c r="I4">
-        <v>0.1573600023520094</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J4">
-        <v>0.111347698879666</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6094783333333332</v>
+        <v>0.345203</v>
       </c>
       <c r="N4">
-        <v>1.828435</v>
+        <v>1.035609</v>
       </c>
       <c r="O4">
-        <v>0.6178353806369556</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="P4">
-        <v>0.6178353806369556</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="Q4">
-        <v>3.793333417789999</v>
+        <v>0.285929228479</v>
       </c>
       <c r="R4">
-        <v>22.76000050674</v>
+        <v>2.573363056311</v>
       </c>
       <c r="S4">
-        <v>0.09722257695018599</v>
+        <v>0.01440639205860851</v>
       </c>
       <c r="T4">
-        <v>0.06879454792036756</v>
+        <v>0.01511146204885391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>2.484879</v>
       </c>
       <c r="I5">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J5">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.345203</v>
+        <v>0.04115566666666667</v>
       </c>
       <c r="N5">
-        <v>1.035609</v>
+        <v>0.123467</v>
       </c>
       <c r="O5">
-        <v>0.3499363557939206</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="P5">
-        <v>0.3499363557939205</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="Q5">
-        <v>0.285929228479</v>
+        <v>0.03408895061033334</v>
       </c>
       <c r="R5">
-        <v>2.573363056311</v>
+        <v>0.306800555493</v>
       </c>
       <c r="S5">
-        <v>0.007328324024388686</v>
+        <v>0.001717553640708237</v>
       </c>
       <c r="T5">
-        <v>0.0077782664390304</v>
+        <v>0.001801613238959729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8282930000000001</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H6">
-        <v>2.484879</v>
+        <v>32.14843</v>
       </c>
       <c r="I6">
-        <v>0.02094187672430462</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J6">
-        <v>0.02222766028806411</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03179233333333333</v>
+        <v>0.345203</v>
       </c>
       <c r="N6">
-        <v>0.095377</v>
+        <v>1.035609</v>
       </c>
       <c r="O6">
-        <v>0.03222826356912383</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="P6">
-        <v>0.03222826356912382</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="Q6">
-        <v>0.02633336715366667</v>
+        <v>3.699244827096667</v>
       </c>
       <c r="R6">
-        <v>0.237000304383</v>
+        <v>33.29320344387001</v>
       </c>
       <c r="S6">
-        <v>0.000674920322702989</v>
+        <v>0.1863844825638317</v>
       </c>
       <c r="T6">
-        <v>0.0007163588942886769</v>
+        <v>0.1955064129381095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8282930000000001</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H7">
-        <v>2.484879</v>
+        <v>32.14843</v>
       </c>
       <c r="I7">
-        <v>0.02094187672430462</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J7">
-        <v>0.02222766028806411</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.6094783333333332</v>
+        <v>0.04115566666666667</v>
       </c>
       <c r="N7">
-        <v>1.828435</v>
+        <v>0.123467</v>
       </c>
       <c r="O7">
-        <v>0.6178353806369556</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="P7">
-        <v>0.6178353806369556</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="Q7">
-        <v>0.5048266371516666</v>
+        <v>0.4410300229788889</v>
       </c>
       <c r="R7">
-        <v>4.543439734365</v>
+        <v>3.969270206810001</v>
       </c>
       <c r="S7">
-        <v>0.01293863237721295</v>
+        <v>0.02222106307371664</v>
       </c>
       <c r="T7">
-        <v>0.01373303495474503</v>
+        <v>0.0233085945431428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.755645</v>
+        <v>1.363699</v>
       </c>
       <c r="H8">
-        <v>32.266935</v>
+        <v>2.727398</v>
       </c>
       <c r="I8">
-        <v>0.2719368528774038</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J8">
-        <v>0.288633156671631</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,27 +939,27 @@
         <v>1.035609</v>
       </c>
       <c r="O8">
-        <v>0.3499363557939206</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="P8">
-        <v>0.3499363557939205</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="Q8">
-        <v>3.712880920935</v>
+        <v>0.470752985897</v>
       </c>
       <c r="R8">
-        <v>33.415928288415</v>
+        <v>2.824517915382</v>
       </c>
       <c r="S8">
-        <v>0.0951605913019862</v>
+        <v>0.02371863874731811</v>
       </c>
       <c r="T8">
-        <v>0.1010032350069663</v>
+        <v>0.0165863091800929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.755645</v>
+        <v>1.363699</v>
       </c>
       <c r="H9">
-        <v>32.266935</v>
+        <v>2.727398</v>
       </c>
       <c r="I9">
-        <v>0.2719368528774038</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J9">
-        <v>0.288633156671631</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03179233333333333</v>
+        <v>0.04115566666666667</v>
       </c>
       <c r="N9">
-        <v>0.095377</v>
+        <v>0.123467</v>
       </c>
       <c r="O9">
-        <v>0.03222826356912383</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="P9">
-        <v>0.03222826356912382</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="Q9">
-        <v>0.341947051055</v>
+        <v>0.05612394147766667</v>
       </c>
       <c r="R9">
-        <v>3.077523459495001</v>
+        <v>0.336743648866</v>
       </c>
       <c r="S9">
-        <v>0.008764052568691019</v>
+        <v>0.002827774932638791</v>
       </c>
       <c r="T9">
-        <v>0.009302145448001535</v>
+        <v>0.001977446927883525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.755645</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H10">
-        <v>32.266935</v>
+        <v>78.816896</v>
       </c>
       <c r="I10">
-        <v>0.2719368528774038</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J10">
-        <v>0.288633156671631</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6094783333333332</v>
+        <v>0.345203</v>
       </c>
       <c r="N10">
-        <v>1.828435</v>
+        <v>1.035609</v>
       </c>
       <c r="O10">
-        <v>0.6178353806369556</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="P10">
-        <v>0.6178353806369556</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="Q10">
-        <v>6.555332588524999</v>
+        <v>9.069276316629333</v>
       </c>
       <c r="R10">
-        <v>58.997993296725</v>
+        <v>81.623486849664</v>
       </c>
       <c r="S10">
-        <v>0.1680122090067266</v>
+        <v>0.4569506622328784</v>
       </c>
       <c r="T10">
-        <v>0.1783277762166632</v>
+        <v>0.4793144989001338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6398845000000001</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H11">
-        <v>1.279769</v>
+        <v>78.816896</v>
       </c>
       <c r="I11">
-        <v>0.01617831168052042</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J11">
-        <v>0.01144774879549287</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.345203</v>
+        <v>0.04115566666666667</v>
       </c>
       <c r="N11">
-        <v>1.035609</v>
+        <v>0.123467</v>
       </c>
       <c r="O11">
-        <v>0.3499363557939206</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="P11">
-        <v>0.3499363557939205</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="Q11">
-        <v>0.2208900490535</v>
+        <v>1.081253966492445</v>
       </c>
       <c r="R11">
-        <v>1.325340294321</v>
+        <v>9.731285698432</v>
       </c>
       <c r="S11">
-        <v>0.005661379432379535</v>
+        <v>0.0544784058596505</v>
       </c>
       <c r="T11">
-        <v>0.004005983495539017</v>
+        <v>0.05714465907084895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6398845000000001</v>
+        <v>6.363122</v>
       </c>
       <c r="H12">
-        <v>1.279769</v>
+        <v>19.089366</v>
       </c>
       <c r="I12">
-        <v>0.01617831168052042</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J12">
-        <v>0.01144774879549287</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.03179233333333333</v>
+        <v>0.345203</v>
       </c>
       <c r="N12">
-        <v>0.095377</v>
+        <v>1.035609</v>
       </c>
       <c r="O12">
-        <v>0.03222826356912383</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="P12">
-        <v>0.03222826356912382</v>
+        <v>0.8934780808160984</v>
       </c>
       <c r="Q12">
-        <v>0.02034342131883334</v>
+        <v>2.196568803766</v>
       </c>
       <c r="R12">
-        <v>0.122060527913</v>
+        <v>19.769119233894</v>
       </c>
       <c r="S12">
-        <v>0.0005213988929432469</v>
+        <v>0.1106729505727527</v>
       </c>
       <c r="T12">
-        <v>0.0003689410654542639</v>
+        <v>0.1160894473516345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6398845000000001</v>
+        <v>6.363122</v>
       </c>
       <c r="H13">
-        <v>1.279769</v>
+        <v>19.089366</v>
       </c>
       <c r="I13">
-        <v>0.01617831168052042</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J13">
-        <v>0.01144774879549287</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.6094783333333332</v>
+        <v>0.04115566666666667</v>
       </c>
       <c r="N13">
-        <v>1.828435</v>
+        <v>0.123467</v>
       </c>
       <c r="O13">
-        <v>0.6178353806369556</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="P13">
-        <v>0.6178353806369556</v>
+        <v>0.1065219191839017</v>
       </c>
       <c r="Q13">
-        <v>0.3899957385858333</v>
+        <v>0.2618785279913333</v>
       </c>
       <c r="R13">
-        <v>2.339974431515</v>
+        <v>2.356906751922</v>
       </c>
       <c r="S13">
-        <v>0.009995533355197641</v>
+        <v>0.01319461030984287</v>
       </c>
       <c r="T13">
-        <v>0.007072824234499586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4.640172333333333</v>
-      </c>
-      <c r="H14">
-        <v>13.920517</v>
-      </c>
-      <c r="I14">
-        <v>0.1173182883160857</v>
-      </c>
-      <c r="J14">
-        <v>0.1245213641832143</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.345203</v>
-      </c>
-      <c r="N14">
-        <v>1.035609</v>
-      </c>
-      <c r="O14">
-        <v>0.3499363557939206</v>
-      </c>
-      <c r="P14">
-        <v>0.3499363557939205</v>
-      </c>
-      <c r="Q14">
-        <v>1.601801409983667</v>
-      </c>
-      <c r="R14">
-        <v>14.416212689853</v>
-      </c>
-      <c r="S14">
-        <v>0.04105393428131152</v>
-      </c>
-      <c r="T14">
-        <v>0.04357455240076162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>4.640172333333333</v>
-      </c>
-      <c r="H15">
-        <v>13.920517</v>
-      </c>
-      <c r="I15">
-        <v>0.1173182883160857</v>
-      </c>
-      <c r="J15">
-        <v>0.1245213641832143</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.03179233333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.095377</v>
-      </c>
-      <c r="O15">
-        <v>0.03222826356912383</v>
-      </c>
-      <c r="P15">
-        <v>0.03222826356912382</v>
-      </c>
-      <c r="Q15">
-        <v>0.1475219055454444</v>
-      </c>
-      <c r="R15">
-        <v>1.327697149909</v>
-      </c>
-      <c r="S15">
-        <v>0.003780964717329271</v>
-      </c>
-      <c r="T15">
-        <v>0.004013107344883485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.640172333333333</v>
-      </c>
-      <c r="H16">
-        <v>13.920517</v>
-      </c>
-      <c r="I16">
-        <v>0.1173182883160857</v>
-      </c>
-      <c r="J16">
-        <v>0.1245213641832143</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6094783333333332</v>
-      </c>
-      <c r="N16">
-        <v>1.828435</v>
-      </c>
-      <c r="O16">
-        <v>0.6178353806369556</v>
-      </c>
-      <c r="P16">
-        <v>0.6178353806369556</v>
-      </c>
-      <c r="Q16">
-        <v>2.828084500099444</v>
-      </c>
-      <c r="R16">
-        <v>25.452760500895</v>
-      </c>
-      <c r="S16">
-        <v>0.07248338931744491</v>
-      </c>
-      <c r="T16">
-        <v>0.07693370443756917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>16.464098</v>
-      </c>
-      <c r="H17">
-        <v>49.39229400000001</v>
-      </c>
-      <c r="I17">
-        <v>0.416264668049676</v>
-      </c>
-      <c r="J17">
-        <v>0.4418223711819317</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.345203</v>
-      </c>
-      <c r="N17">
-        <v>1.035609</v>
-      </c>
-      <c r="O17">
-        <v>0.3499363557939206</v>
-      </c>
-      <c r="P17">
-        <v>0.3499363557939205</v>
-      </c>
-      <c r="Q17">
-        <v>5.683456021894001</v>
-      </c>
-      <c r="R17">
-        <v>51.15110419704601</v>
-      </c>
-      <c r="S17">
-        <v>0.1456661409830697</v>
-      </c>
-      <c r="T17">
-        <v>0.1546097104796341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>16.464098</v>
-      </c>
-      <c r="H18">
-        <v>49.39229400000001</v>
-      </c>
-      <c r="I18">
-        <v>0.416264668049676</v>
-      </c>
-      <c r="J18">
-        <v>0.4418223711819317</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.03179233333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.095377</v>
-      </c>
-      <c r="O18">
-        <v>0.03222826356912383</v>
-      </c>
-      <c r="P18">
-        <v>0.03222826356912382</v>
-      </c>
-      <c r="Q18">
-        <v>0.5234320916486668</v>
-      </c>
-      <c r="R18">
-        <v>4.710888824838001</v>
-      </c>
-      <c r="S18">
-        <v>0.0134154874364188</v>
-      </c>
-      <c r="T18">
-        <v>0.01423916782918655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>16.464098</v>
-      </c>
-      <c r="H19">
-        <v>49.39229400000001</v>
-      </c>
-      <c r="I19">
-        <v>0.416264668049676</v>
-      </c>
-      <c r="J19">
-        <v>0.4418223711819317</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6094783333333332</v>
-      </c>
-      <c r="N19">
-        <v>1.828435</v>
-      </c>
-      <c r="O19">
-        <v>0.6178353806369556</v>
-      </c>
-      <c r="P19">
-        <v>0.6178353806369556</v>
-      </c>
-      <c r="Q19">
-        <v>10.03451100887667</v>
-      </c>
-      <c r="R19">
-        <v>90.31059907989</v>
-      </c>
-      <c r="S19">
-        <v>0.2571830396301876</v>
-      </c>
-      <c r="T19">
-        <v>0.2729734928731111</v>
+        <v>0.0138403739212041</v>
       </c>
     </row>
   </sheetData>
